--- a/500all/speech_level/speeches_CHRG-114hhrg20078.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20078.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. The subcommittee will come to order to receive testimony concerning the F-35 Joint Strike Fighter, the JSF, program. I want to welcome our panel of distinguished witnesses, Dr. Michael Gilmore, Director of Operational Test and Evaluation [OT&amp;E]; Dr. Michael J. Sullivan, Director of Acquisition and Sourcing, Government Accountability Office [GAO], and a good southwest Ohioan; the Honorable Sean Stackley, Assistant Secretary of the Navy for Research, Development, and Acquisition; and Lieutenant General Christopher C. Bogdan, F-35 Program Executive Officer.    Because we were held up for votes, I am going to enter my statement for the record, if there is no objection.    [The prepared statement of Mr. Turner can be found in the Appendix on page 31.]</t>
   </si>
   <si>
@@ -67,18 +64,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gilmore</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gilmore. Thank you, Mr. Chairman, members of the committee. In my opening statement I will focus on readiness for operational test and evaluation.    My estimate is the program won't be ready to begin IOT&amp;E [initial operational test and evaluation] until mid-calendar year 2018 at the earliest. That would be about a 1-year delay relative to what the program is carrying currently as its objective dates and about 6 months relative to its threshold dates.    The reasons are the following. The most complex mission system testing remains, as does verification and fixes to significant problems, some of those fixes already having been identified and some not. Mission system stability, including the radar, still a problem. Inadequate fusion of sensor information from sensors on the same aircraft, as well as among different aircraft, continues to be a problem. There are shortfalls in electronic warfare, electronic attack, shortfalls in the performance of the Distributed Aperture System, and other issues that are classified with regard to mission systems.    Stealth aircraft are not invisible. To achieve success against the modern stressing mobile threats we are relying on our $400 billion investment in F-35 to provide, mission systems must work, in some reasonable sense of that word. And we must provide every incentive to the contractors to make the mission systems work leading up to and after IOT&amp;E, in my view.    The program has now changed its approach from schedule-driven software releases, which had overlaid old problems on top of new problems, to a capabilities-based approach. So now the program is addressing the significant deficiencies with a given version of software prior to proceeding with the next version, and I certainly commend that approach. And that should help work through and solve some of these problems that I have mentioned with mission systems.    Other reasons IOT&amp;E is likely to be delayed include the need for weapons testing and certification. The rate at which that has been done in the past must triple in order to get all the events done. There has been talk of cutting the number of events by two-thirds. If that occurs, that would simply shift the work to IOT&amp;E and make essentially certain late discoveries of problems requiring fixes during IOT&amp;E.    The program is exploring ways to up the rate of testing, including using ranges at Eglin, and that would be a good decision, but decisions and action need to be taken soon.    There is also the issue of certification of full weapons usage throughout the full flight envelope. The most recent test community estimates are that that would occur in October 2017 for F-35A, February 2018 for F-35C, and May 2018 for F-35B. And we are looking at this. Some have proposed an incremental rolling start to occupational tests. That may not be practical, and it was certainly problematic when we tried it on F-22.    There are still problems with the Autonomics Logistics Information System [ALIS], which is critical to the combat operations of the aircraft. There are many resource-intensive workarounds still required. Under the program's current schedule, ALIS 3.0, the full capability version required for IOT&amp;E, would not be released until the first quarter of 2018.    There is also the need for concurrency-driven extensive modifications required to early-lot aircraft bought for IOT&amp;E when it was thought that IOT&amp;E would begin in 2013. The current unmitigated--meaning no measures taken to correct the problem--schedule shows mods extending into third quarter calendar year 2019. The program is, however, working on a multipronged approach, including using later-production aircraft slated for operational use and taking hardware from recently delivered aircraft on the production line that could move the completion of those modifications into 2018, and a decision is needed now on that.    There are also inadequacies in the U.S. Reprogramming Lab that is used to generate the Mission Data Files, which are essential to the success in combat and certainly success in operational testing of the aircraft.    The program's optimistic schedule for delivery of a validated--but, in my view, very possibly inadequate--Mission Data File for operational testing is the third quarter of 2017, but that date assumes the U.S. Reprogramming Lab receives a fully capable version of Block 3F by April 2016, next month, which we already know under the program's current plans will not happen until this summer at the soonest.    So for all these reasons, I suspect that we won't be ready for operational testing until mid-calendar year 2018.    Thank you.    [The prepared statement of Dr. Gilmore can be found in the Appendix on page 35.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Turner. Mr. Sullivan.</t>
   </si>
   <si>
-    <t>Sullivan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sullivan. Good morning, Mr. Chairman, members of the subcommittee. It is a pleasure to be here to discuss the progress on the F-35 program today.    I have a written statement that I will submit for the record, and I just want to summarize five of the major points in that statement in my oral remarks.    First, the Department [of Defense] is now planning to add new capability, known as Block 4, to the F-35 beyond its baseline capability and is planning to manage that effort as part of the existing program, rather than establishing a separate business case and baseline for this new work.    This has significant implications as far as the Congress' role in oversight. This modernization effort is like a new program with estimated cost of about $3 billion over the next 6 years. That price tag alone would qualify it as a major defense acquisition program in its own right, and it should be managed as such, so that it is subject to the same statutory and regulatory reporting as any other program its size.    The F-22 provides precedent for this. It began its modernization effort as part of the existing baseline program and it eventually established a separate business case and developed into a major acquisition program with its own Milestone B in order to better track progress and cost changes.    Second, although the program has been managing costs very well since 2010, the Nunn-McCurdy breach back then, and cost estimates have actually decreased since then, it still poses significant affordability challenges for the Department and the Congress. As production begins to increase and the program begins procuring more aircraft each year, the Department is expected to spend about $14 billion per year over the next decade and will average about $13 billion per year over the next 22 years until all planned purchases are complete in 2038.    These annual funding challenges will compound as the program begins to stack its funding needs against other large acquisitions, such as the bomber program, the tanker program that is ongoing, the Ohio-class submarine replacement, the new carrier, and many other very large programs.    It is important to note this is just the remaining acquisition cost for the F-35. As we all know, the cost to operate and maintain the F-35 across its entire life cycle is estimated now at about $1 trillion, which has added to that overall price tag.    My third point is software development and developmental flight testing of the F-35 are now nearing completion, but the program faces challenges in getting all of its development activity completed on time. I think Dr. Gilmore covered that pretty well. It is through with 80 percent of its developmental flight tests. It has completed the first three blocks of software, and it is now working to close out flight testing of its final block of software, Block 3F.    That is the critical block of software as it will provide the full warfighting capabilities required for the F-35. Program officials have stated that there would be as much as a 3-month delay. We have done our own analysis and we think it could be more in line with 6 months. And I think Dr. Gilmore's analysis indicates even longer than that.    Fourth, with regard to technical risks on the program, the program has most recently found fixes for its engine seal problem that we were talking about last year and the design of the helmet mounted display. And it has begun to retrofit aircraft with those fixes. They are not all in, but the solutions are there.    Two new challenges have recently been identified. One concerns the ejection seat and the other concerns the wing structure of the carrier variant. The program is working now to find solutions to each of those problems. I think on the ejection seat they have a pretty good concept figured out to solve that one.    It should also be noted that the Autonomic Logistics Information System, known as ALIS, continues to be challenging and has been cited as one of the most significant outstanding risks to the program today, and that has a lot to do with operations and maintenance, as you know.    Finally, manufacturing and production data continue to show a positive trend toward more efficient production. The amount of labor hours it is taking to build each aircraft continues to go down, quality is increasing, and engineering changes have been reduced significantly.    While there are still issues with late parts, this is consistently improving as well. Contractors are now delivering aircraft on time or ahead of schedule. We continue to track the measures for the aircraft's reliability and maintainability. And while they still fall short of expectations, they continue to improve, and there is still time to achieve the program's required goals at the right time.    I will close with that. I look forward to your questions.    [The prepared statement of Mr. Sullivan can be found in the Appendix on page 67.]</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t xml:space="preserve">    Mr. Turner. Thank you.    Mr. Stackley.</t>
   </si>
   <si>
-    <t>Stackley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Stackley. Chairman Turner, distinguished members of the subcommittee, thank you for the opportunity to appear before you today to testify on the F-35 Joint Strike Fighter program. I will provide brief opening remarks and submit a formal statement for the record.    One year ago, we discussed with the subcommittee the challenges facing the program at that time and our plans to address those challenges. In the course of this past year cost, schedule, and technical performance of the Joint Strike Fighter have steadily improved across each variant of the aircraft, in each phase of the program, development, production, and sustainment.    Known technical issues are being driven to closure and the aircraft's capabilities, measured in terms of flight envelope, mission systems, and weapons delivery, are being steadily expanded in support of each service's requirements for initial operating capability, or IOC.    As noted, production of F-35 aircraft and engines has improved from lot to lot in terms of unit cost, schedule performance, improved quality, reduced rework, and concurrency related costs. These positive trends are being sustained while also methodically increasing our rate of production.    The pacing activity on the program today is flight testing, which itself is being paced by the incremental release of warfighting capability and mission system software blocks, commonly referred to as Block 2B, 3i, and 3F. Block 2B testing completed in 2015 and provided the capability required to support the Marine Corps' declaration of IOC in July 2015.    The completion of Block 3i testing has been delayed pending correction of software stability issues. In the course of the next week, we commence flight testing what is planned to be the final build of Block 3i capability, designed to improve that stability, all in support of the Air Force IOC scheduled later this year.    Completion of the final block, Block 3F, poses the greatest remaining challenge to completion of system development. Block 3F includes the more complex functionality of the three software baselines, including what is referred to as sensor fusion.    Further coding and testing of Block 3F has been impacted by resource demands, software engineers, and lab facilities associated with supporting completion of earlier software builds. These factors add up to the program's estimate of 4 months schedule risk to completion of Block 3F developmental testing. This projection still supports the Navy IOC with Block 3F in 2018.    That said, we are wary that further technical issues are certain to emerge as we press on with testing, and it will be critical that the program rapidly correct these deficiencies while mitigating their impact on both test and production.    The program's commitment is to mitigate these risks going forward and to do so within the bounds of the program's budget while delivering the full capability defined by the Lightning II requirements document.    Meanwhile, the program's focus is increasingly shifting to operations in support of in-service aircraft. The program has accumulated 50,000 flight hours, and with 152 aircraft operating at 8 bases across the country, the warfighter's experience and feedback on the aircraft and support systems is beginning to shape the program's priorities.    The Marines have two full squadrons in operation today and will stand up their third this June. They are building momentum as the service and the vanguard of the F-35 effort, gaining capability and confidence and employing it tactically every day. They have demonstrated operations from an austere forward operating base at Twentynine Palms in support of the Marine Corps combined arms exercise. They are training British pilots, as well as first tour Marine Corps pilots, in Beaufort, South Carolina.    They will deploy the Nation's first operational F-35 squadron less than a year from now to Marine Corps Air Station Iwakuni, Japan, in January 2017. Marine pilots love this plane and the capability it brings to the Marine Corps air-ground task force.    Meanwhile, delivery of Air Force F-35A aircraft at Eglin Air Force Base are completed, training for Air Force international partner pilots at Luke Air Force Base continues to ramp up, and the Air Force first operational squadron is filling out at Hill Air Force Base with seven aircraft at Hill and remaining aircraft completing modifications to support IOC.    Separately, the Navy has gained extensive experience demonstrating launch, recovery, handling, and support of the F-35C during at-sea trial periods aboard the aircraft carriers Eisenhower and Nimitz and a third sea trial scheduled for later this year.    Two key points regarding operations and sustainment require mention. First, with particular regard to aircraft reliability, maintainability, and availability, or RM&amp;A, one year ago we reported that overall performance in this area was poor and trending poor. Concerted efforts by the government/industry team have reversed those trends. And while we have much work remaining, improvements to design, parts availability, maintenance training and support, and tooling are yielding improved performance in the key metrics. RM&amp;A will remain a principal focus area for the program in the years ahead.    Second, the program is working closely with the services, our international partners, and industry to formulate an operating and support strategy for the program including the business plan that will accompany this strategy and an overarching O&amp;S [operations and support] war on cost.    A critical element of the O&amp;S plan is the Autonomic Logistic Information System, or ALIS. ALIS continues to mature, improving with each version fielded. In the near term, we will be testing a new version, ALIS 2.0.2, which we expect to support the Air Force IOC. Additionally, to improve turnaround time for fixing issues highlighted by fleet maintainers, we have commenced delivery of service packs aimed to be more timely and responsive to a warfighter's immediate needs.    In the long term, however, ALIS has yet to meet its full promise, and we will need to go the full distance in that regard if we are going to succeed in meeting our goals for reducing the ownership cost and increasing the operational availability for this complex aircraft, and we are committed to that end.    In summary, the F-35 program is making solid progress across the full spectrum of development, production, testing, and fielding of capability. As known issues are retired, new issues will emerge, and these too will be wrestled to closure. The program's forecast for delivery of initial operating capability for each of the services, including risk, is largely unchanged from one year ago. Yet, the size and complexity of this program and the capability it represents is such that a great amount of work remains ahead, leading to each ensuing IOC and subsequent operations and sustainment and modernization of the aircraft.    We are careful to neither minimize our assessment of the inherent risks nor to avoid them, but rather to assess them realistically and manage them aggressively. The warfighter and our international partners deserve nothing less.    Mr. Chairman, again, thank you for the opportunity to testify today on the Joint Strike Fighter program. I look forward to answering your questions.    [The joint prepared statement of Secretary Stackley and General Bogdan can be found in the Appendix on page 87.]</t>
   </si>
   <si>
@@ -157,9 +145,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    To follow up on your questions about the need for our country to invest in a fifth generation of aircraft to take over from the legacy aircraft that have been flying for decades now, the F/A-18, the A-10, and the AV-8B, would all be replaced by our investment in the F-35 fifth generation.    And it is important to note that other nations are investing in fifth-generation aircraft--the Russians, the Chinese--and that is what we mean by a changing threat environment, which America must step up to the plate. And if it intends to remain superior in the air, we must step up to the plate and invest and prepare for the long term. And that is what the F-35 enables us to do.    With respect to those who may have participated in the poll that Chairman Turner referred to and were of the opinion that we should extend the legacy fleet and rely on it for our future protection, isn't it--and I assume they want to do that because it saves money. So penny-wise, pound-foolish, that would apply in this kind of a situation here.    Isn't it a fact that if America were to do what some prefer, which is to extend the life of the legacy fleet, isn't it a fact that operations and supply costs to extend the legacy fleet would cost approximately four times what operations and support costs would be for the F-35 over the next 50 years? Isn't it a fact?</t>
   </si>
   <si>
@@ -211,9 +196,6 @@
     <t>412612</t>
   </si>
   <si>
-    <t>Ruben Gallego</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chair.    General Bogdan, the original concept of the F-35 platform was to retain about 70 percent similarity between the three variants in order to keep costs down on the budget. But as we know, this has not been achieved, which calls the original concept into question.    Knowing this, would you support programs in the future that aim for commonality between platforms for the services or do you think these efforts would also have too many cost and schedule overruns?    General Bogdan. Congressman, what I have said before about joint programs is that they are hard, they are neither good nor bad, and it really depends on how you manage them. But they are indeed hard, and they are hard because when you bring together a number of different customers that may have varying requirements, it is sometimes hard to meet all those requirements without going to the least common denominator.    And so what I would tell you is a decision to move forward on any platform in the joint arena would depend on how much overlap the services see in the requirements that they have. There are opportunities outside of a joint program to benefit from commonality, using similar engines, using similar flight control systems. But to embody that in the same airplane that would try and meet the requirements of varied customers is a really hard thing to do.</t>
   </si>
   <si>
@@ -235,9 +217,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    And thank you, gentlemen.    I remain a strong supporter of a fifth-generation fighter, having been an airman myself. Knowing the threats that we have that are emanating, we need that capability. However, I remain concerned about the close air support of FAC(A) [forward air controller-airborne] and combat search and rescue missions that are currently being done by the A-10 Warthog and the F-35's capabilities to replace that without increasing risk to American lives.    General Bogdan, can you confirm that the F-35 requirements document is still that the F-35 would replace the A-10 and the     General Bogdan. Ma'am, what I will tell you is the requirements document that I have on the program does not specifically say that it will replace the A-10 and the F-16. My requirements document has to do with what the capabilities of the F-35 is. The decision to replace airplanes with the F-35 is a service decision.</t>
   </si>
   <si>
@@ -311,9 +290,6 @@
   </si>
   <si>
     <t>412214</t>
-  </si>
-  <si>
-    <t>Timothy J. Walz</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman. And thank you all for being here again. We really appreciate it. The strategic need for the F-35, I think everyone knows that. We hear it. It is now crunch time, though, on the delivery piece of it.    And, General Bogdan, you are right, there is a perception issue both in what they are going to get and what they expect to get. But there is also this perception that I have held and I have used this as an example.    I have been to no less than 14 hearings dealing with changes to retirement plans, taking away of the housing allowance, transferability of the GI Bill benefit, commissary changes, and TRICARE. And where that relates to this is the perception out there is, is when the Pentagon needs to save money, they go to those programs. And I always use the example that we haven't had as many of these.    So I hear statements like this from one of our partners from the Australian Defence Force, I think it was Keith Joiner said it. He's responsible for evaluating this, and he said some systems like the radar are fundamentally worse than earlier, which is not a good sign. The next software version Block 4 won't be available. So here we are with bug fixes for the next 7 years. And they are looking, am I correct in this, they are reevaluating their purchases on this.    So I go back home. I talk to soldiers and sailors, say, ``So I just lost a GI Bill benefit. What is happening with this?'' How do I talk to them about it? Is it a matter of until you deliver it, this is just going to go on? Because I do kind of feel like I am asked to come into the play and do my part and say this, and then it is going to be delivered. How do I go back? How would you answer on this?    General Bogdan. It is a tough question, Congressman. And I clearly understand the point of view here. I guess the best I would offer, if I were asked that question, is that bringing a new weapon system online to defend our country is never easy. And it always is fraught with mistakes, bad choices, technical challenges. And the history of especially developing airplanes has been murky. We have had lots of problems over the years bringing new airplanes online.</t>
@@ -781,11 +757,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -807,11 +781,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -833,11 +805,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -857,13 +827,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -885,11 +853,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -909,13 +875,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -937,11 +901,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -963,11 +925,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -987,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1015,11 +973,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1041,11 +997,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1067,11 +1021,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1093,11 +1045,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1119,11 +1069,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1143,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1171,11 +1117,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1195,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1223,11 +1165,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1247,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1275,11 +1213,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1299,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1327,11 +1261,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1353,11 +1285,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1379,11 +1309,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1403,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1431,11 +1357,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1455,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1483,11 +1405,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1507,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1535,11 +1453,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1559,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1585,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1611,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1637,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1663,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
         <v>47</v>
-      </c>
-      <c r="H36" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1689,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1715,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1741,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1767,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1795,11 +1693,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1821,11 +1717,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1845,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1873,11 +1765,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1897,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1925,11 +1813,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1951,11 +1837,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1975,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2001,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2027,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2053,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2081,11 +1957,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2107,11 +1981,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2131,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2157,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2183,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2209,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2235,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2261,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2287,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2313,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2339,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2365,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2391,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2417,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2443,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2469,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2495,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2521,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2547,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G70" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2573,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2599,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
-      </c>
-      <c r="G72" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2625,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2651,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>72</v>
-      </c>
-      <c r="G74" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2677,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2703,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
-      </c>
-      <c r="G76" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2729,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2755,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>72</v>
-      </c>
-      <c r="G78" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2783,11 +2605,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2807,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2833,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2859,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2885,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2911,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2937,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2963,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>98</v>
-      </c>
-      <c r="G86" t="s">
-        <v>99</v>
-      </c>
-      <c r="H86" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2989,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3015,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3043,11 +2845,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3067,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>72</v>
-      </c>
-      <c r="G90" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3093,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3119,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>72</v>
-      </c>
-      <c r="G92" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3145,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3171,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>72</v>
-      </c>
-      <c r="G94" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3197,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3223,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>72</v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3249,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3275,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>72</v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3301,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3327,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
-      </c>
-      <c r="G100" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3353,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3379,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>72</v>
-      </c>
-      <c r="G102" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3405,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3431,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>72</v>
-      </c>
-      <c r="G104" t="s">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3459,11 +3229,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20078.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20078.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turner. The subcommittee will come to order to receive testimony concerning the F-35 Joint Strike Fighter, the JSF, program. I want to welcome our panel of distinguished witnesses, Dr. Michael Gilmore, Director of Operational Test and Evaluation [OT&amp;E]; Dr. Michael J. Sullivan, Director of Acquisition and Sourcing, Government Accountability Office [GAO], and a good southwest Ohioan; the Honorable Sean Stackley, Assistant Secretary of the Navy for Research, Development, and Acquisition; and Lieutenant General Christopher C. Bogdan, F-35 Program Executive Officer.    Because we were held up for votes, I am going to enter my statement for the record, if there is no objection.    [The prepared statement of Mr. Turner can be found in the Appendix on page 31.]</t>
   </si>
   <si>
@@ -64,12 +73,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gilmore</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Gilmore. Thank you, Mr. Chairman, members of the committee. In my opening statement I will focus on readiness for operational test and evaluation.    My estimate is the program won't be ready to begin IOT&amp;E [initial operational test and evaluation] until mid-calendar year 2018 at the earliest. That would be about a 1-year delay relative to what the program is carrying currently as its objective dates and about 6 months relative to its threshold dates.    The reasons are the following. The most complex mission system testing remains, as does verification and fixes to significant problems, some of those fixes already having been identified and some not. Mission system stability, including the radar, still a problem. Inadequate fusion of sensor information from sensors on the same aircraft, as well as among different aircraft, continues to be a problem. There are shortfalls in electronic warfare, electronic attack, shortfalls in the performance of the Distributed Aperture System, and other issues that are classified with regard to mission systems.    Stealth aircraft are not invisible. To achieve success against the modern stressing mobile threats we are relying on our $400 billion investment in F-35 to provide, mission systems must work, in some reasonable sense of that word. And we must provide every incentive to the contractors to make the mission systems work leading up to and after IOT&amp;E, in my view.    The program has now changed its approach from schedule-driven software releases, which had overlaid old problems on top of new problems, to a capabilities-based approach. So now the program is addressing the significant deficiencies with a given version of software prior to proceeding with the next version, and I certainly commend that approach. And that should help work through and solve some of these problems that I have mentioned with mission systems.    Other reasons IOT&amp;E is likely to be delayed include the need for weapons testing and certification. The rate at which that has been done in the past must triple in order to get all the events done. There has been talk of cutting the number of events by two-thirds. If that occurs, that would simply shift the work to IOT&amp;E and make essentially certain late discoveries of problems requiring fixes during IOT&amp;E.    The program is exploring ways to up the rate of testing, including using ranges at Eglin, and that would be a good decision, but decisions and action need to be taken soon.    There is also the issue of certification of full weapons usage throughout the full flight envelope. The most recent test community estimates are that that would occur in October 2017 for F-35A, February 2018 for F-35C, and May 2018 for F-35B. And we are looking at this. Some have proposed an incremental rolling start to occupational tests. That may not be practical, and it was certainly problematic when we tried it on F-22.    There are still problems with the Autonomics Logistics Information System [ALIS], which is critical to the combat operations of the aircraft. There are many resource-intensive workarounds still required. Under the program's current schedule, ALIS 3.0, the full capability version required for IOT&amp;E, would not be released until the first quarter of 2018.    There is also the need for concurrency-driven extensive modifications required to early-lot aircraft bought for IOT&amp;E when it was thought that IOT&amp;E would begin in 2013. The current unmitigated--meaning no measures taken to correct the problem--schedule shows mods extending into third quarter calendar year 2019. The program is, however, working on a multipronged approach, including using later-production aircraft slated for operational use and taking hardware from recently delivered aircraft on the production line that could move the completion of those modifications into 2018, and a decision is needed now on that.    There are also inadequacies in the U.S. Reprogramming Lab that is used to generate the Mission Data Files, which are essential to the success in combat and certainly success in operational testing of the aircraft.    The program's optimistic schedule for delivery of a validated--but, in my view, very possibly inadequate--Mission Data File for operational testing is the third quarter of 2017, but that date assumes the U.S. Reprogramming Lab receives a fully capable version of Block 3F by April 2016, next month, which we already know under the program's current plans will not happen until this summer at the soonest.    So for all these reasons, I suspect that we won't be ready for operational testing until mid-calendar year 2018.    Thank you.    [The prepared statement of Dr. Gilmore can be found in the Appendix on page 35.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Turner. Mr. Sullivan.</t>
   </si>
   <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sullivan. Good morning, Mr. Chairman, members of the subcommittee. It is a pleasure to be here to discuss the progress on the F-35 program today.    I have a written statement that I will submit for the record, and I just want to summarize five of the major points in that statement in my oral remarks.    First, the Department [of Defense] is now planning to add new capability, known as Block 4, to the F-35 beyond its baseline capability and is planning to manage that effort as part of the existing program, rather than establishing a separate business case and baseline for this new work.    This has significant implications as far as the Congress' role in oversight. This modernization effort is like a new program with estimated cost of about $3 billion over the next 6 years. That price tag alone would qualify it as a major defense acquisition program in its own right, and it should be managed as such, so that it is subject to the same statutory and regulatory reporting as any other program its size.    The F-22 provides precedent for this. It began its modernization effort as part of the existing baseline program and it eventually established a separate business case and developed into a major acquisition program with its own Milestone B in order to better track progress and cost changes.    Second, although the program has been managing costs very well since 2010, the Nunn-McCurdy breach back then, and cost estimates have actually decreased since then, it still poses significant affordability challenges for the Department and the Congress. As production begins to increase and the program begins procuring more aircraft each year, the Department is expected to spend about $14 billion per year over the next decade and will average about $13 billion per year over the next 22 years until all planned purchases are complete in 2038.    These annual funding challenges will compound as the program begins to stack its funding needs against other large acquisitions, such as the bomber program, the tanker program that is ongoing, the Ohio-class submarine replacement, the new carrier, and many other very large programs.    It is important to note this is just the remaining acquisition cost for the F-35. As we all know, the cost to operate and maintain the F-35 across its entire life cycle is estimated now at about $1 trillion, which has added to that overall price tag.    My third point is software development and developmental flight testing of the F-35 are now nearing completion, but the program faces challenges in getting all of its development activity completed on time. I think Dr. Gilmore covered that pretty well. It is through with 80 percent of its developmental flight tests. It has completed the first three blocks of software, and it is now working to close out flight testing of its final block of software, Block 3F.    That is the critical block of software as it will provide the full warfighting capabilities required for the F-35. Program officials have stated that there would be as much as a 3-month delay. We have done our own analysis and we think it could be more in line with 6 months. And I think Dr. Gilmore's analysis indicates even longer than that.    Fourth, with regard to technical risks on the program, the program has most recently found fixes for its engine seal problem that we were talking about last year and the design of the helmet mounted display. And it has begun to retrofit aircraft with those fixes. They are not all in, but the solutions are there.    Two new challenges have recently been identified. One concerns the ejection seat and the other concerns the wing structure of the carrier variant. The program is working now to find solutions to each of those problems. I think on the ejection seat they have a pretty good concept figured out to solve that one.    It should also be noted that the Autonomic Logistics Information System, known as ALIS, continues to be challenging and has been cited as one of the most significant outstanding risks to the program today, and that has a lot to do with operations and maintenance, as you know.    Finally, manufacturing and production data continue to show a positive trend toward more efficient production. The amount of labor hours it is taking to build each aircraft continues to go down, quality is increasing, and engineering changes have been reduced significantly.    While there are still issues with late parts, this is consistently improving as well. Contractors are now delivering aircraft on time or ahead of schedule. We continue to track the measures for the aircraft's reliability and maintainability. And while they still fall short of expectations, they continue to improve, and there is still time to achieve the program's required goals at the right time.    I will close with that. I look forward to your questions.    [The prepared statement of Mr. Sullivan can be found in the Appendix on page 67.]</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t xml:space="preserve">    Mr. Turner. Thank you.    Mr. Stackley.</t>
   </si>
   <si>
+    <t>Stackley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Secretary Stackley. Chairman Turner, distinguished members of the subcommittee, thank you for the opportunity to appear before you today to testify on the F-35 Joint Strike Fighter program. I will provide brief opening remarks and submit a formal statement for the record.    One year ago, we discussed with the subcommittee the challenges facing the program at that time and our plans to address those challenges. In the course of this past year cost, schedule, and technical performance of the Joint Strike Fighter have steadily improved across each variant of the aircraft, in each phase of the program, development, production, and sustainment.    Known technical issues are being driven to closure and the aircraft's capabilities, measured in terms of flight envelope, mission systems, and weapons delivery, are being steadily expanded in support of each service's requirements for initial operating capability, or IOC.    As noted, production of F-35 aircraft and engines has improved from lot to lot in terms of unit cost, schedule performance, improved quality, reduced rework, and concurrency related costs. These positive trends are being sustained while also methodically increasing our rate of production.    The pacing activity on the program today is flight testing, which itself is being paced by the incremental release of warfighting capability and mission system software blocks, commonly referred to as Block 2B, 3i, and 3F. Block 2B testing completed in 2015 and provided the capability required to support the Marine Corps' declaration of IOC in July 2015.    The completion of Block 3i testing has been delayed pending correction of software stability issues. In the course of the next week, we commence flight testing what is planned to be the final build of Block 3i capability, designed to improve that stability, all in support of the Air Force IOC scheduled later this year.    Completion of the final block, Block 3F, poses the greatest remaining challenge to completion of system development. Block 3F includes the more complex functionality of the three software baselines, including what is referred to as sensor fusion.    Further coding and testing of Block 3F has been impacted by resource demands, software engineers, and lab facilities associated with supporting completion of earlier software builds. These factors add up to the program's estimate of 4 months schedule risk to completion of Block 3F developmental testing. This projection still supports the Navy IOC with Block 3F in 2018.    That said, we are wary that further technical issues are certain to emerge as we press on with testing, and it will be critical that the program rapidly correct these deficiencies while mitigating their impact on both test and production.    The program's commitment is to mitigate these risks going forward and to do so within the bounds of the program's budget while delivering the full capability defined by the Lightning II requirements document.    Meanwhile, the program's focus is increasingly shifting to operations in support of in-service aircraft. The program has accumulated 50,000 flight hours, and with 152 aircraft operating at 8 bases across the country, the warfighter's experience and feedback on the aircraft and support systems is beginning to shape the program's priorities.    The Marines have two full squadrons in operation today and will stand up their third this June. They are building momentum as the service and the vanguard of the F-35 effort, gaining capability and confidence and employing it tactically every day. They have demonstrated operations from an austere forward operating base at Twentynine Palms in support of the Marine Corps combined arms exercise. They are training British pilots, as well as first tour Marine Corps pilots, in Beaufort, South Carolina.    They will deploy the Nation's first operational F-35 squadron less than a year from now to Marine Corps Air Station Iwakuni, Japan, in January 2017. Marine pilots love this plane and the capability it brings to the Marine Corps air-ground task force.    Meanwhile, delivery of Air Force F-35A aircraft at Eglin Air Force Base are completed, training for Air Force international partner pilots at Luke Air Force Base continues to ramp up, and the Air Force first operational squadron is filling out at Hill Air Force Base with seven aircraft at Hill and remaining aircraft completing modifications to support IOC.    Separately, the Navy has gained extensive experience demonstrating launch, recovery, handling, and support of the F-35C during at-sea trial periods aboard the aircraft carriers Eisenhower and Nimitz and a third sea trial scheduled for later this year.    Two key points regarding operations and sustainment require mention. First, with particular regard to aircraft reliability, maintainability, and availability, or RM&amp;A, one year ago we reported that overall performance in this area was poor and trending poor. Concerted efforts by the government/industry team have reversed those trends. And while we have much work remaining, improvements to design, parts availability, maintenance training and support, and tooling are yielding improved performance in the key metrics. RM&amp;A will remain a principal focus area for the program in the years ahead.    Second, the program is working closely with the services, our international partners, and industry to formulate an operating and support strategy for the program including the business plan that will accompany this strategy and an overarching O&amp;S [operations and support] war on cost.    A critical element of the O&amp;S plan is the Autonomic Logistic Information System, or ALIS. ALIS continues to mature, improving with each version fielded. In the near term, we will be testing a new version, ALIS 2.0.2, which we expect to support the Air Force IOC. Additionally, to improve turnaround time for fixing issues highlighted by fleet maintainers, we have commenced delivery of service packs aimed to be more timely and responsive to a warfighter's immediate needs.    In the long term, however, ALIS has yet to meet its full promise, and we will need to go the full distance in that regard if we are going to succeed in meeting our goals for reducing the ownership cost and increasing the operational availability for this complex aircraft, and we are committed to that end.    In summary, the F-35 program is making solid progress across the full spectrum of development, production, testing, and fielding of capability. As known issues are retired, new issues will emerge, and these too will be wrestled to closure. The program's forecast for delivery of initial operating capability for each of the services, including risk, is largely unchanged from one year ago. Yet, the size and complexity of this program and the capability it represents is such that a great amount of work remains ahead, leading to each ensuing IOC and subsequent operations and sustainment and modernization of the aircraft.    We are careful to neither minimize our assessment of the inherent risks nor to avoid them, but rather to assess them realistically and manage them aggressively. The warfighter and our international partners deserve nothing less.    Mr. Chairman, again, thank you for the opportunity to testify today on the Joint Strike Fighter program. I look forward to answering your questions.    [The joint prepared statement of Secretary Stackley and General Bogdan can be found in the Appendix on page 87.]</t>
   </si>
   <si>
@@ -145,6 +163,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    To follow up on your questions about the need for our country to invest in a fifth generation of aircraft to take over from the legacy aircraft that have been flying for decades now, the F/A-18, the A-10, and the AV-8B, would all be replaced by our investment in the F-35 fifth generation.    And it is important to note that other nations are investing in fifth-generation aircraft--the Russians, the Chinese--and that is what we mean by a changing threat environment, which America must step up to the plate. And if it intends to remain superior in the air, we must step up to the plate and invest and prepare for the long term. And that is what the F-35 enables us to do.    With respect to those who may have participated in the poll that Chairman Turner referred to and were of the opinion that we should extend the legacy fleet and rely on it for our future protection, isn't it--and I assume they want to do that because it saves money. So penny-wise, pound-foolish, that would apply in this kind of a situation here.    Isn't it a fact that if America were to do what some prefer, which is to extend the life of the legacy fleet, isn't it a fact that operations and supply costs to extend the legacy fleet would cost approximately four times what operations and support costs would be for the F-35 over the next 50 years? Isn't it a fact?</t>
   </si>
   <si>
@@ -196,6 +220,12 @@
     <t>412612</t>
   </si>
   <si>
+    <t>Gallego</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chair.    General Bogdan, the original concept of the F-35 platform was to retain about 70 percent similarity between the three variants in order to keep costs down on the budget. But as we know, this has not been achieved, which calls the original concept into question.    Knowing this, would you support programs in the future that aim for commonality between platforms for the services or do you think these efforts would also have too many cost and schedule overruns?    General Bogdan. Congressman, what I have said before about joint programs is that they are hard, they are neither good nor bad, and it really depends on how you manage them. But they are indeed hard, and they are hard because when you bring together a number of different customers that may have varying requirements, it is sometimes hard to meet all those requirements without going to the least common denominator.    And so what I would tell you is a decision to move forward on any platform in the joint arena would depend on how much overlap the services see in the requirements that they have. There are opportunities outside of a joint program to benefit from commonality, using similar engines, using similar flight control systems. But to embody that in the same airplane that would try and meet the requirements of varied customers is a really hard thing to do.</t>
   </si>
   <si>
@@ -217,6 +247,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    And thank you, gentlemen.    I remain a strong supporter of a fifth-generation fighter, having been an airman myself. Knowing the threats that we have that are emanating, we need that capability. However, I remain concerned about the close air support of FAC(A) [forward air controller-airborne] and combat search and rescue missions that are currently being done by the A-10 Warthog and the F-35's capabilities to replace that without increasing risk to American lives.    General Bogdan, can you confirm that the F-35 requirements document is still that the F-35 would replace the A-10 and the     General Bogdan. Ma'am, what I will tell you is the requirements document that I have on the program does not specifically say that it will replace the A-10 and the F-16. My requirements document has to do with what the capabilities of the F-35 is. The decision to replace airplanes with the F-35 is a service decision.</t>
   </si>
   <si>
@@ -290,6 +326,12 @@
   </si>
   <si>
     <t>412214</t>
+  </si>
+  <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman. And thank you all for being here again. We really appreciate it. The strategic need for the F-35, I think everyone knows that. We hear it. It is now crunch time, though, on the delivery piece of it.    And, General Bogdan, you are right, there is a perception issue both in what they are going to get and what they expect to get. But there is also this perception that I have held and I have used this as an example.    I have been to no less than 14 hearings dealing with changes to retirement plans, taking away of the housing allowance, transferability of the GI Bill benefit, commissary changes, and TRICARE. And where that relates to this is the perception out there is, is when the Pentagon needs to save money, they go to those programs. And I always use the example that we haven't had as many of these.    So I hear statements like this from one of our partners from the Australian Defence Force, I think it was Keith Joiner said it. He's responsible for evaluating this, and he said some systems like the radar are fundamentally worse than earlier, which is not a good sign. The next software version Block 4 won't be available. So here we are with bug fixes for the next 7 years. And they are looking, am I correct in this, they are reevaluating their purchases on this.    So I go back home. I talk to soldiers and sailors, say, ``So I just lost a GI Bill benefit. What is happening with this?'' How do I talk to them about it? Is it a matter of until you deliver it, this is just going to go on? Because I do kind of feel like I am asked to come into the play and do my part and say this, and then it is going to be delivered. How do I go back? How would you answer on this?    General Bogdan. It is a tough question, Congressman. And I clearly understand the point of view here. I guess the best I would offer, if I were asked that question, is that bringing a new weapon system online to defend our country is never easy. And it always is fraught with mistakes, bad choices, technical challenges. And the history of especially developing airplanes has been murky. We have had lots of problems over the years bringing new airplanes online.</t>
@@ -707,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,7 +757,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,2501 +779,2952 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>49</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G56" t="s">
+        <v>77</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G68" t="s">
+        <v>77</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G70" t="s">
+        <v>77</v>
+      </c>
       <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G72" t="s">
+        <v>77</v>
+      </c>
       <c r="H72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>66</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G74" t="s">
+        <v>77</v>
+      </c>
       <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G76" t="s">
+        <v>77</v>
+      </c>
       <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
       <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
       <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G81" t="s">
+        <v>104</v>
+      </c>
       <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G82" t="s">
+        <v>104</v>
+      </c>
       <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G84" t="s">
+        <v>104</v>
+      </c>
       <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G88" t="s">
+        <v>104</v>
+      </c>
       <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G90" t="s">
+        <v>77</v>
+      </c>
       <c r="H90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G92" t="s">
+        <v>77</v>
+      </c>
       <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
       <c r="H94" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G96" t="s">
+        <v>77</v>
+      </c>
       <c r="H96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G98" t="s">
+        <v>77</v>
+      </c>
       <c r="H98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G100" t="s">
+        <v>77</v>
+      </c>
       <c r="H100" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G102" t="s">
+        <v>77</v>
+      </c>
       <c r="H102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G104" t="s">
+        <v>77</v>
+      </c>
       <c r="H104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20078.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20078.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Turner</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
   </si>
   <si>
     <t>412199</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Johnson</t>
@@ -749,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +766,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,2949 +791,3192 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I50" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G72" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G76" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I78" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G80" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G81" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G82" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I82" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G86" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="H88" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H94" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G96" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H96" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H98" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H100" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I100" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G102" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H102" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G104" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>128</v>
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
